--- a/南普陀寺歷任主持簡史表(直式).xlsx
+++ b/南普陀寺歷任主持簡史表(直式).xlsx
@@ -7,9 +7,8 @@
     <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -188,15 +187,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在華梵大學旁蓮華學佛園講戒</t>
-  </si>
-  <si>
-    <t>接南普陀寺主持。南普陀寺第3屆佛學院開辦(至今第13屆未斷)。創辦第1屆台中齋僧大會(至今未斷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>認識並護持國強長老</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在陽明山蓮華學佛園講戒</t>
+  </si>
+  <si>
+    <t>接南普陀寺主持。南普陀寺第3屆佛學院開辦(相續至今第13屆)。創辦第1屆台中齋僧大會(相續至今)</t>
   </si>
 </sst>
 </file>
@@ -246,16 +244,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF00B0F0"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF00B0F0"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF00B0F0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,14 +263,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -287,6 +288,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33830</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5864050" cy="426142"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="430070" y="32819"/>
+          <a:ext cx="5864050" cy="426142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="flat" dir="tl">
+              <a:rot lat="0" lon="0" rev="6600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="25400" contourW="8890">
+            <a:bevelT w="38100" h="31750"/>
+            <a:contourClr>
+              <a:schemeClr val="accent2">
+                <a:shade val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>南普陀寺歷任主持及相關長老簡史表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>直式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="8800" b="1" cap="none" spc="0">
+            <a:ln w="11430"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="70000"/>
+                    <a:satMod val="245000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="90000"/>
+                    <a:shade val="60000"/>
+                    <a:satMod val="240000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="50000"/>
+                    <a:satMod val="240000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="39000" dir="5460000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,412 +705,627 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="15" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="17" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>90</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>59</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>76</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>82</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>97</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>97</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>102</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>107</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -992,10 +1333,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <webPublishItems count="2">
-    <webPublishItem id="1396" divId="南普陀寺歷任主持簡史表_1396" sourceType="sheet" destinationFile="C:\Users\nanputo-fwpc\Desktop\南普陀寺歷任主持簡史表2.htm" autoRepublish="1"/>
-    <webPublishItem id="31482" divId="南普陀寺歷任主持簡史表_31482" sourceType="range" sourceRef="A1:H39" destinationFile="C:\Users\nanputo-fwpc\Desktop\南普陀寺歷任主持簡史表2.htm"/>
-  </webPublishItems>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1010,17 +1348,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/南普陀寺歷任主持簡史表(直式).xlsx
+++ b/南普陀寺歷任主持簡史表(直式).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>國強長老</t>
   </si>
@@ -98,13 +98,7 @@
     <t>南普陀寺第1屆佛學院開辦</t>
   </si>
   <si>
-    <t>台中慈善寺主持交給振光長老</t>
-  </si>
-  <si>
     <t>任南普陀佛學院總務主任</t>
-  </si>
-  <si>
-    <t>因見能海長老穿慈航大師的南傳袈裟，南普陀佛學院自此改穿南傳袈裟</t>
   </si>
   <si>
     <t>任台中慈明寺佛學院訓導主任</t>
@@ -195,6 +189,18 @@
   </si>
   <si>
     <t>接南普陀寺主持。南普陀寺第3屆佛學院開辦(相續至今第13屆)。創辦第1屆台中齋僧大會(相續至今)</t>
+  </si>
+  <si>
+    <t>因見能學長老穿慈航大師的南傳袈裟，南普陀佛學院自此改穿南傳袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中慈善寺主持交給振光長老，任南普陀佛學院教務主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任南普陀佛學院教務主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -707,8 +713,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -731,7 +737,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -867,7 +873,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -897,7 +903,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -913,7 +919,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -984,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -992,7 +998,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1029,7 +1035,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -1037,14 +1043,14 @@
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -1052,7 +1058,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1060,7 +1066,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1068,7 +1074,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1082,7 +1088,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1102,7 +1108,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1124,7 +1130,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1138,15 +1144,17 @@
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1158,7 +1166,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1171,7 +1179,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1184,15 +1192,15 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1202,10 +1210,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1220,7 +1228,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1234,7 +1242,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1247,7 +1255,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1261,16 +1269,16 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1295,7 +1303,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
